--- a/Tp3/jfreechart_regression_linéaire.xlsx
+++ b/Tp3/jfreechart_regression_linéaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexis\Documents\GitHub\IFT3913\Tp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8A0528-5EC7-4394-A78B-8B366C17D4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE8851-2856-4CE6-AB9D-884BDD43DD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="816" firstSheet="2" activeTab="6" xr2:uid="{108A9D6D-BFE2-45BB-9010-37F36D29C030}"/>
   </bookViews>
@@ -22,26 +22,18 @@
     <sheet name="T3" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'jfreechart-test-stats'!$D$2:$D$352</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'jfreechart-test-stats'!$C$2:$C$352</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'jfreechart-test-stats'!$B$2:$B$352</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'jfreechart-test-stats'!$D$2:$D$352</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'Jfreechart-test&gt;20'!$C$2:$C$136</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'T3'!$I$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Jfreechart-test&lt;=20'!$B$2:$B$217</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Jfreechart-test&gt;20'!$B$2:$B$136</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'T3'!$A$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Jfreechart-test&lt;=20'!$B$2:$B$217</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Jfreechart-test&gt;20'!$B$2:$B$136</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Jfreechart-test&lt;=20'!$B$2:$B$217</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Jfreechart-test&gt;20'!$B$2:$B$136</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Jfreechart-test&lt;=20'!$B$2:$B$217</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'jfreechart-test-stats'!$B$2:$B$352</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Jfreechart-test&lt;=20'!$C$2:$C$217</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Jfreechart-test&lt;=20'!$C$2:$C$217</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Jfreechart-test&lt;=20'!$C$2:$C$217</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'jfreechart-test-stats'!$C$2:$C$352</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Jfreechart-test&gt;20'!$B$2:$B$136</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Jfreechart-test&gt;20'!$C$2:$C$136</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Jfreechart-test&lt;=20'!$B$2:$B$217</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Jfreechart-test&lt;=20'!$C$2:$C$217</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Jfreechart-test&lt;=20'!$B$2:$B$217</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Jfreechart-test&gt;20'!$B$2:$B$136</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'T3'!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Jfreechart-test&lt;=20'!$B$2:$B$217</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Jfreechart-test&gt;20'!$B$2:$B$136</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'Jfreechart-test&lt;=20'!$C$2:$C$217</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="3" hidden="1">'Jfreechart-test&lt;=20'!$A$1:$D$217</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="2" hidden="1">'Jfreechart-test&gt;20'!$A$1:$D$136</definedName>
@@ -15972,7 +15964,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16040,7 +16032,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16108,7 +16100,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16176,46 +16168,50 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Tloc</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
+        <cx:txData>
+          <cx:v>Tloc</cx:v>
+        </cx:txData>
       </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Tloc</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="boxWhisker" uniqueId="{502AF63B-3657-45B2-9ABF-658540119158}" formatIdx="0">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Tassert &gt; 20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16228,6 +16224,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000002-5160-42B4-AF68-90C297C51174}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Tassert &lt;= 20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16300,6 +16297,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1B6A4A2A-E0C6-497A-A231-2776AFE9B49A}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Tassert &gt; 20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16312,6 +16310,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-B32A-4780-9833-5C1B415535F0}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Tassert &lt;= 20</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16341,7 +16340,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16412,7 +16411,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16553,7 +16552,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -25489,15 +25488,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -25533,7 +25532,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5364480" y="190500"/>
+              <a:off x="5379720" y="205740"/>
               <a:ext cx="4572000" cy="3467100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -40648,8 +40647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC226B86-65EA-487B-A0FB-73DFB2C5181D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
